--- a/custom-audio-template.xlsx
+++ b/custom-audio-template.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,6 +407,25 @@
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="10" max="10" width="25.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" customWidth="1"/>
+    <col min="15" max="15" width="20.83203125" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" customWidth="1"/>
+    <col min="17" max="17" width="15.83203125" customWidth="1"/>
+    <col min="18" max="18" width="15.83203125" customWidth="1"/>
+    <col min="19" max="19" width="20.83203125" customWidth="1"/>
+    <col min="20" max="20" width="20.83203125" customWidth="1"/>
+    <col min="21" max="21" width="15.83203125" customWidth="1"/>
+    <col min="22" max="22" width="20.83203125" customWidth="1"/>
+    <col min="23" max="23" width="15.83203125" customWidth="1"/>
+    <col min="24" max="24" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -425,6 +444,63 @@
       <c r="E1" t="str">
         <v>call_date</v>
       </c>
+      <c r="F1" t="str">
+        <v>auditRole</v>
+      </c>
+      <c r="G1" t="str">
+        <v>OLMSID</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Name</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PBXID</v>
+      </c>
+      <c r="J1" t="str">
+        <v>partnerName</v>
+      </c>
+      <c r="K1" t="str">
+        <v>customerMobile</v>
+      </c>
+      <c r="L1" t="str">
+        <v>callDuration</v>
+      </c>
+      <c r="M1" t="str">
+        <v>callType</v>
+      </c>
+      <c r="N1" t="str">
+        <v>subType</v>
+      </c>
+      <c r="O1" t="str">
+        <v>subSubType</v>
+      </c>
+      <c r="P1" t="str">
+        <v>VOC</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>languageOfCall</v>
+      </c>
+      <c r="R1" t="str">
+        <v>userRole</v>
+      </c>
+      <c r="S1" t="str">
+        <v>advisorCategory</v>
+      </c>
+      <c r="T1" t="str">
+        <v>businessSegment</v>
+      </c>
+      <c r="U1" t="str">
+        <v>LOB</v>
+      </c>
+      <c r="V1" t="str">
+        <v>formName</v>
+      </c>
+      <c r="W1" t="str">
+        <v>callId</v>
+      </c>
+      <c r="X1" t="str">
+        <v>callDate</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -442,6 +518,63 @@
       <c r="E2" t="str">
         <v>2023-12-15</v>
       </c>
+      <c r="F2" t="str">
+        <v>Quality Analyst</v>
+      </c>
+      <c r="G2" t="str">
+        <v>AG123456</v>
+      </c>
+      <c r="H2" t="str">
+        <v>John Smith</v>
+      </c>
+      <c r="I2" t="str">
+        <v>PBX987654</v>
+      </c>
+      <c r="J2" t="str">
+        <v>CloudPoint Technologies</v>
+      </c>
+      <c r="K2" t="str">
+        <v>9876543210</v>
+      </c>
+      <c r="L2" t="str">
+        <v>180</v>
+      </c>
+      <c r="M2" t="str">
+        <v>inbound</v>
+      </c>
+      <c r="N2" t="str">
+        <v>Customer Service</v>
+      </c>
+      <c r="O2" t="str">
+        <v>Billing Inquiry</v>
+      </c>
+      <c r="P2" t="str">
+        <v>Positive</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>English</v>
+      </c>
+      <c r="R2" t="str">
+        <v>Agent</v>
+      </c>
+      <c r="S2" t="str">
+        <v>Challenger</v>
+      </c>
+      <c r="T2" t="str">
+        <v>Care</v>
+      </c>
+      <c r="U2" t="str">
+        <v>Prepaid</v>
+      </c>
+      <c r="V2" t="str">
+        <v>Evaluation Form 1</v>
+      </c>
+      <c r="W2" t="str">
+        <v>CALL-123-25</v>
+      </c>
+      <c r="X2" t="str">
+        <v>2023-12-15</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -459,6 +592,63 @@
       <c r="E3" t="str">
         <v>2023-12-15</v>
       </c>
+      <c r="F3" t="str">
+        <v>Quality Analyst</v>
+      </c>
+      <c r="G3" t="str">
+        <v>AG234567</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Jane Doe</v>
+      </c>
+      <c r="I3" t="str">
+        <v>PBX123456</v>
+      </c>
+      <c r="J3" t="str">
+        <v>CloudPoint Technologies</v>
+      </c>
+      <c r="K3" t="str">
+        <v>8765432109</v>
+      </c>
+      <c r="L3" t="str">
+        <v>240</v>
+      </c>
+      <c r="M3" t="str">
+        <v>outbound</v>
+      </c>
+      <c r="N3" t="str">
+        <v>Technical Support</v>
+      </c>
+      <c r="O3" t="str">
+        <v>Hardware Issue</v>
+      </c>
+      <c r="P3" t="str">
+        <v>Negative</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>Spanish</v>
+      </c>
+      <c r="R3" t="str">
+        <v>Senior Agent</v>
+      </c>
+      <c r="S3" t="str">
+        <v>Performer</v>
+      </c>
+      <c r="T3" t="str">
+        <v>Tech Support</v>
+      </c>
+      <c r="U3" t="str">
+        <v>Postpaid</v>
+      </c>
+      <c r="V3" t="str">
+        <v>Evaluation Form 1</v>
+      </c>
+      <c r="W3" t="str">
+        <v>CALL-456-25</v>
+      </c>
+      <c r="X3" t="str">
+        <v>2023-12-15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -476,6 +666,63 @@
       <c r="E4" t="str">
         <v>2023-12-15</v>
       </c>
+      <c r="F4" t="str">
+        <v>Quality Analyst</v>
+      </c>
+      <c r="G4" t="str">
+        <v>AG345678</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Robert Johnson</v>
+      </c>
+      <c r="I4" t="str">
+        <v>PBX234567</v>
+      </c>
+      <c r="J4" t="str">
+        <v>CloudPoint Technologies</v>
+      </c>
+      <c r="K4" t="str">
+        <v>7654321098</v>
+      </c>
+      <c r="L4" t="str">
+        <v>320</v>
+      </c>
+      <c r="M4" t="str">
+        <v>inbound</v>
+      </c>
+      <c r="N4" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="O4" t="str">
+        <v>Product Information</v>
+      </c>
+      <c r="P4" t="str">
+        <v>Positive</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>French</v>
+      </c>
+      <c r="R4" t="str">
+        <v>Agent</v>
+      </c>
+      <c r="S4" t="str">
+        <v>Challenger</v>
+      </c>
+      <c r="T4" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="U4" t="str">
+        <v>Enterprise</v>
+      </c>
+      <c r="V4" t="str">
+        <v>Evaluation Form 1</v>
+      </c>
+      <c r="W4" t="str">
+        <v>CALL-789-25</v>
+      </c>
+      <c r="X4" t="str">
+        <v>2023-12-15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -493,6 +740,63 @@
       <c r="E5" t="str">
         <v>2023-12-15</v>
       </c>
+      <c r="F5" t="str">
+        <v>Quality Analyst</v>
+      </c>
+      <c r="G5" t="str">
+        <v>AG456789</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Anna Schmidt</v>
+      </c>
+      <c r="I5" t="str">
+        <v>PBX345678</v>
+      </c>
+      <c r="J5" t="str">
+        <v>CloudPoint Technologies</v>
+      </c>
+      <c r="K5" t="str">
+        <v>6543210987</v>
+      </c>
+      <c r="L5" t="str">
+        <v>150</v>
+      </c>
+      <c r="M5" t="str">
+        <v>inbound</v>
+      </c>
+      <c r="N5" t="str">
+        <v>General</v>
+      </c>
+      <c r="O5" t="str">
+        <v>Account Inquiry</v>
+      </c>
+      <c r="P5" t="str">
+        <v>Neutral</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>German</v>
+      </c>
+      <c r="R5" t="str">
+        <v>Agent</v>
+      </c>
+      <c r="S5" t="str">
+        <v>Performer</v>
+      </c>
+      <c r="T5" t="str">
+        <v>Care</v>
+      </c>
+      <c r="U5" t="str">
+        <v>Corporate</v>
+      </c>
+      <c r="V5" t="str">
+        <v>Evaluation Form 1</v>
+      </c>
+      <c r="W5" t="str">
+        <v>CALL-101-25</v>
+      </c>
+      <c r="X5" t="str">
+        <v>2023-12-15</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -510,10 +814,67 @@
       <c r="E6" t="str">
         <v>2023-12-15</v>
       </c>
+      <c r="F6" t="str">
+        <v>Quality Analyst</v>
+      </c>
+      <c r="G6" t="str">
+        <v>AG567890</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Michael Brown</v>
+      </c>
+      <c r="I6" t="str">
+        <v>PBX456789</v>
+      </c>
+      <c r="J6" t="str">
+        <v>CloudPoint Technologies</v>
+      </c>
+      <c r="K6" t="str">
+        <v>5432109876</v>
+      </c>
+      <c r="L6" t="str">
+        <v>270</v>
+      </c>
+      <c r="M6" t="str">
+        <v>inbound</v>
+      </c>
+      <c r="N6" t="str">
+        <v>Support</v>
+      </c>
+      <c r="O6" t="str">
+        <v>Technical Issue</v>
+      </c>
+      <c r="P6" t="str">
+        <v>Positive</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>English</v>
+      </c>
+      <c r="R6" t="str">
+        <v>Senior Agent</v>
+      </c>
+      <c r="S6" t="str">
+        <v>Challenger</v>
+      </c>
+      <c r="T6" t="str">
+        <v>Tech Support</v>
+      </c>
+      <c r="U6" t="str">
+        <v>Prepaid</v>
+      </c>
+      <c r="V6" t="str">
+        <v>Evaluation Form 1</v>
+      </c>
+      <c r="W6" t="str">
+        <v>CALL-202-25</v>
+      </c>
+      <c r="X6" t="str">
+        <v>2023-12-15</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:X6"/>
   </ignoredErrors>
 </worksheet>
 </file>